--- a/OpenEMR/TestData/openemr_data.xlsx
+++ b/OpenEMR/TestData/openemr_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkarj\Desktop\C# Project\AutomationProject1\OpenEMR\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DA7D9E-4AA4-4483-B365-CE2025B72B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C8E5C4-282C-4F0D-83B7-1577B4F9E79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidLoginTest" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Username</t>
   </si>
@@ -47,13 +47,76 @@
   </si>
   <si>
     <t xml:space="preserve">Invalid username </t>
+  </si>
+  <si>
+    <t>Name Suffix</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marital Status </t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ravi </t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Vidya</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Single</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +132,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -78,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,13 +157,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,10 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -387,35 +481,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -426,12 +520,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832DFDFF-4A73-417E-ABA7-52A902EA9C1E}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5">
+        <v>44197</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44324</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>